--- a/Stats/QueryCategory_SignificanceTests.xlsx
+++ b/Stats/QueryCategory_SignificanceTests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ratio_paras</t>
+          <t>ParaLen</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.3625493376211115</v>
+        <v>0.4156654316285117</v>
       </c>
       <c r="F2" t="n">
-        <v>3.508751273191228e-09</v>
+        <v>7.290056809624596e-12</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -514,7 +514,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ratio_paras</t>
+          <t>ParaLen</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.376658649688874</v>
+        <v>-0.5110236561277185</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5769006643389402</v>
+        <v>0.6097891168066648</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -545,7 +545,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ratio_list_items</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -554,10 +554,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1652429926730414</v>
+        <v>0.3957514503938567</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008853842095328629</v>
+        <v>8.411862202643253e-11</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -576,7 +576,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ratio_list_items</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.376658649688874</v>
+        <v>-0.9664652985616541</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6669760763828263</v>
+        <v>0.3347529195036262</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ratio_headings</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -616,13 +616,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.4042143827099164</v>
+        <v>-0.08195002827096186</v>
       </c>
       <c r="F6" t="n">
-        <v>3.034499043965871e-11</v>
+        <v>0.1965569466260821</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -638,7 +638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ratio_headings</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6.376658649688874</v>
+        <v>0.8775192418953064</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6646583160566412</v>
+        <v>0.3810539668047527</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -669,7 +669,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>avg_para_len</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.4156654316285117</v>
+        <v>-0.4042143827099164</v>
       </c>
       <c r="F8" t="n">
-        <v>7.290056809624596e-12</v>
+        <v>3.034499043965871e-11</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>avg_para_len</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6.376658649688874</v>
+        <v>0.434010262460049</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6097891168066648</v>
+        <v>0.6646583160566412</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -731,7 +731,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>num_sentences</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.3957514503938567</v>
+        <v>0.1652429926730414</v>
       </c>
       <c r="F10" t="n">
-        <v>8.411862202643253e-11</v>
+        <v>0.008853842095328629</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>num_sentences</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6.376658649688874</v>
+        <v>0.4308163924335011</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3347529195036262</v>
+        <v>0.6669760763828263</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -793,7 +793,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>avg_len</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.08195002827096186</v>
+        <v>0.3625493376211115</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1965569466260821</v>
+        <v>3.508751273191228e-09</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -824,7 +824,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>avg_len</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6.376658649688874</v>
+        <v>-0.5586558636166522</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3810539668047527</v>
+        <v>0.5769006643389402</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>flesch</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>flesch</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6.376658649688874</v>
+        <v>-1.06780905720397</v>
       </c>
       <c r="F15" t="n">
         <v>0.2866449665511901</v>
@@ -917,7 +917,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>cli</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>cli</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6.376658649688874</v>
+        <v>2.899814152050229</v>
       </c>
       <c r="F17" t="n">
         <v>0.00406870559065752</v>
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>avg_concrete</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>avg_concrete</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6.376658649688874</v>
+        <v>-1.264269579084952</v>
       </c>
       <c r="F19" t="n">
         <v>0.2073201997734881</v>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>concrete_ratio</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>concrete_ratio</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6.376658649688874</v>
+        <v>-3.459732991901614</v>
       </c>
       <c r="F21" t="n">
         <v>0.0006363868322553607</v>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>abstract_ratio</t>
+          <t>AbstractWords</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>abstract_ratio</t>
+          <t>AbstractWords</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6.376658649688874</v>
+        <v>0.2811019008583373</v>
       </c>
       <c r="F23" t="n">
         <v>0.7788666277271206</v>
@@ -1155,7 +1155,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Google SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>undefined_ratio</t>
+          <t>ParaLen</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1174,19 +1174,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.001646052361485953</v>
+        <v>0.2706030287491749</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9793403238659868</v>
+        <v>1.435361190039127e-05</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Google SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>undefined_ratio</t>
+          <t>ParaLen</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1205,13 +1205,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.376658649688874</v>
+        <v>3.718749489404479</v>
       </c>
       <c r="F25" t="n">
-        <v>0.510422503855005</v>
+        <v>0.0002475920537611846</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ratio_paras</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.108955575943751</v>
+        <v>-0.007163575672257998</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08557300867825444</v>
+        <v>0.910268492753239</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ratio_paras</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6.376658649688874</v>
+        <v>-0.2457137968166855</v>
       </c>
       <c r="F27" t="n">
-        <v>3.31988830054383e-06</v>
+        <v>0.8061070162773634</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ratio_list_items</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1298,13 +1298,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.05643116850915467</v>
+        <v>0.3002501592363305</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3742762753598845</v>
+        <v>1.327357544064294e-06</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ratio_list_items</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1329,13 +1329,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6.376658649688874</v>
+        <v>1.409054380807944</v>
       </c>
       <c r="F29" t="n">
-        <v>3.407881988602243e-07</v>
+        <v>0.1600716953112943</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ratio_headings</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ratio_headings</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6.376658649688874</v>
+        <v>-0.9450429894567727</v>
       </c>
       <c r="F31" t="n">
         <v>0.3455567392618174</v>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>avg_para_len</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.2706030287491749</v>
+        <v>-0.05643116850915467</v>
       </c>
       <c r="F32" t="n">
-        <v>1.435361190039127e-05</v>
+        <v>0.3742762753598845</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>avg_para_len</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6.376658649688874</v>
+        <v>5.241520405154095</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0002475920537611846</v>
+        <v>3.407881988602243e-07</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>num_sentences</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-0.007163575672257998</v>
+        <v>0.108955575943751</v>
       </c>
       <c r="F34" t="n">
-        <v>0.910268492753239</v>
+        <v>0.08557300867825444</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>num_sentences</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6.376658649688874</v>
+        <v>-4.758154856355904</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8061070162773634</v>
+        <v>3.31988830054383e-06</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>avg_len</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1546,13 +1546,13 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.3002501592363305</v>
+        <v>0.009200056414874385</v>
       </c>
       <c r="F36" t="n">
-        <v>1.327357544064294e-06</v>
+        <v>0.8849163772611623</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>avg_len</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1577,13 +1577,13 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6.376658649688874</v>
+        <v>-2.792686306308226</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1600716953112943</v>
+        <v>0.005634753888853091</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>flesch</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.009200056414874385</v>
+        <v>-0.07119545115652605</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8849163772611623</v>
+        <v>0.2620831090276431</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>flesch</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6.376658649688874</v>
+        <v>3.70214258322679</v>
       </c>
       <c r="F39" t="n">
-        <v>0.005634753888853091</v>
+        <v>0.000263462678116794</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>cli</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1670,10 +1670,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-0.07119545115652605</v>
+        <v>-0.06386240235152611</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2620831090276431</v>
+        <v>0.3145503679343439</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>cli</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1701,13 +1701,13 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6.376658649688874</v>
+        <v>-1.18244091632259</v>
       </c>
       <c r="F41" t="n">
-        <v>0.000263462678116794</v>
+        <v>0.2381632171109009</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>avg_concrete</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-0.06386240235152611</v>
+        <v>0.1096471257520291</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3145503679343439</v>
+        <v>0.08359359283948428</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>avg_concrete</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1763,13 +1763,13 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6.376658649688874</v>
+        <v>-2.92412250034188</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2381632171109009</v>
+        <v>0.003773924772129364</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>concrete_ratio</t>
+          <t>AbstractWords</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1794,13 +1794,13 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1096471257520291</v>
+        <v>0.337641969798087</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08359359283948428</v>
+        <v>4.414509187849658e-08</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>concrete_ratio</t>
+          <t>AbstractWords</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1825,19 +1825,19 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6.376658649688874</v>
+        <v>1.340815768626459</v>
       </c>
       <c r="F45" t="n">
-        <v>0.003773924772129364</v>
+        <v>0.1812070897962658</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>abstract_ratio</t>
+          <t>ParaLen</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.337641969798087</v>
+        <v>0.2740410623489418</v>
       </c>
       <c r="F46" t="n">
-        <v>4.414509187849658e-08</v>
+        <v>1.104189923837415e-05</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>abstract_ratio</t>
+          <t>ParaLen</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1887,19 +1887,19 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.376658649688874</v>
+        <v>2.533709933808033</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1812070897962658</v>
+        <v>0.01190296933482046</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>undefined_ratio</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1918,10 +1918,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-0.3237362007365762</v>
+        <v>0.4329009808594341</v>
       </c>
       <c r="F48" t="n">
-        <v>1.652393458725899e-07</v>
+        <v>7.676511490134417e-13</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -1930,7 +1930,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>undefined_ratio</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6.376658649688874</v>
+        <v>0.3064031585564667</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3917126680585519</v>
+        <v>0.7595547845270134</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ratio_paras</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1980,13 +1980,13 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.2823383634809268</v>
+        <v>-0.01010497087601963</v>
       </c>
       <c r="F50" t="n">
-        <v>5.77728356484894e-06</v>
+        <v>0.8736870223002212</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ratio_paras</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6.376658649688874</v>
+        <v>2.687557929946071</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5688022537293917</v>
+        <v>0.007684878109720279</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ratio_list_items</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2042,10 +2042,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.2847069272159338</v>
+        <v>-0.4449840674324707</v>
       </c>
       <c r="F52" t="n">
-        <v>4.783473231269815e-06</v>
+        <v>1.465728012131996e-13</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ratio_list_items</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.376658649688874</v>
+        <v>-1.381552673369437</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1547529164352007</v>
+        <v>0.1683524480314909</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ratio_headings</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2104,10 +2104,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-0.4449840674324707</v>
+        <v>0.2847069272159338</v>
       </c>
       <c r="F54" t="n">
-        <v>1.465728012131996e-13</v>
+        <v>4.783473231269815e-06</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ratio_headings</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6.376658649688874</v>
+        <v>1.42729445846113</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1683524480314909</v>
+        <v>0.1547529164352007</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>avg_para_len</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2740410623489418</v>
+        <v>0.2823383634809268</v>
       </c>
       <c r="F56" t="n">
-        <v>1.104189923837415e-05</v>
+        <v>5.77728356484894e-06</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>avg_para_len</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2197,13 +2197,13 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6.376658649688874</v>
+        <v>0.5705781253869143</v>
       </c>
       <c r="F57" t="n">
-        <v>0.01190296933482046</v>
+        <v>0.5688022537293917</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>num_sentences</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2228,13 +2228,13 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.4329009808594341</v>
+        <v>-0.003095396762638224</v>
       </c>
       <c r="F58" t="n">
-        <v>7.676511490134417e-13</v>
+        <v>0.9611604805358258</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>num_sentences</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2259,13 +2259,13 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6.376658649688874</v>
+        <v>-4.482257353555724</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7595547845270134</v>
+        <v>1.129039385324715e-05</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>avg_len</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-0.01010497087601963</v>
+        <v>0.1138838555619238</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8736870223002212</v>
+        <v>0.07225785157104053</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>avg_len</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2321,10 +2321,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6.376658649688874</v>
+        <v>6.785449430442363</v>
       </c>
       <c r="F61" t="n">
-        <v>0.007684878109720279</v>
+        <v>8.456425073138101e-11</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>flesch</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2352,10 +2352,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-0.003095396762638224</v>
+        <v>0.09714333231554134</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9611604805358258</v>
+        <v>0.1255474492554138</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>flesch</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6.376658649688874</v>
+        <v>-1.114618484889616</v>
       </c>
       <c r="F63" t="n">
-        <v>1.129039385324715e-05</v>
+        <v>0.2660929420898918</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>cli</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.1138838555619238</v>
+        <v>-0.07546828440789753</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07225785157104053</v>
+        <v>0.2344496584120191</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>cli</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6.376658649688874</v>
+        <v>-2.049793378016911</v>
       </c>
       <c r="F65" t="n">
-        <v>8.456425073138101e-11</v>
+        <v>0.04143641088197737</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>avg_concrete</t>
+          <t>AbstractWords</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2476,13 +2476,13 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.09714333231554134</v>
+        <v>-0.1823685592431328</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1255474492554138</v>
+        <v>0.003811537855976243</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>avg_concrete</t>
+          <t>AbstractWords</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2507,10 +2507,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6.376658649688874</v>
+        <v>0.3390051772366994</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2660929420898918</v>
+        <v>0.7348926991693939</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2519,7 +2519,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Bing RR</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>concrete_ratio</t>
+          <t>ParaLen</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2538,19 +2538,19 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-0.07546828440789753</v>
+        <v>0.2387828846805937</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2344496584120191</v>
+        <v>0.0001379282971436292</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Bing RR</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>concrete_ratio</t>
+          <t>ParaLen</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6.376658649688874</v>
+        <v>3.648523328440498</v>
       </c>
       <c r="F69" t="n">
-        <v>0.04143641088197737</v>
+        <v>0.0003215063545993465</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2581,7 +2581,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Bing RR</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>abstract_ratio</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2600,19 +2600,19 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-0.1823685592431328</v>
+        <v>0.1178379117155502</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003811537855976243</v>
+        <v>0.06283883431455768</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Bing RR</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>abstract_ratio</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6.376658649688874</v>
+        <v>0.8481562754006752</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7348926991693939</v>
+        <v>0.3971688015172485</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Bing RR</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>undefined_ratio</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.2189702718832988</v>
+        <v>0.4419538931702681</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0004879431146838659</v>
+        <v>2.233955095637689e-13</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2674,7 +2674,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Bing RR</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>undefined_ratio</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2693,13 +2693,13 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6.376658649688874</v>
+        <v>3.401993842361422</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6467840488300404</v>
+        <v>0.0007797063174822112</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ratio_paras</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2724,10 +2724,10 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.1783532385816948</v>
+        <v>0.1792386545067842</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004675297501918927</v>
+        <v>0.004470965582844794</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ratio_paras</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6.376658649688874</v>
+        <v>1.979336611788014</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0007365470263683305</v>
+        <v>0.04888402633279819</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ratio_list_items</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ratio_list_items</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6.376658649688874</v>
+        <v>3.410669565139767</v>
       </c>
       <c r="F77" t="n">
         <v>0.0007563998149379877</v>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ratio_headings</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2848,10 +2848,10 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.1792386545067842</v>
+        <v>0.1783532385816948</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004470965582844794</v>
+        <v>0.004675297501918927</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ratio_headings</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2879,10 +2879,10 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6.376658649688874</v>
+        <v>-3.418258926012688</v>
       </c>
       <c r="F79" t="n">
-        <v>0.04888402633279819</v>
+        <v>0.0007365470263683305</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>avg_para_len</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2910,13 +2910,13 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.2387828846805937</v>
+        <v>-0.06938371530363914</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0001379282971436292</v>
+        <v>0.2744497725527798</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>avg_para_len</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2941,10 +2941,10 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6.376658649688874</v>
+        <v>-3.053656881032697</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0003215063545993465</v>
+        <v>0.002507096010648204</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>num_sentences</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2972,13 +2972,13 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.1178379117155502</v>
+        <v>0.1418646745687729</v>
       </c>
       <c r="F82" t="n">
-        <v>0.06283883431455768</v>
+        <v>0.02488434861442063</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>num_sentences</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3003,13 +3003,13 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.376658649688874</v>
+        <v>3.883398135637343</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3971688015172485</v>
+        <v>0.0001321625806140404</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>avg_len</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.4419538931702681</v>
+        <v>-0.009804174508785851</v>
       </c>
       <c r="F84" t="n">
-        <v>2.233955095637689e-13</v>
+        <v>0.8774170034613193</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>avg_len</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3065,13 +3065,13 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6.376658649688874</v>
+        <v>-0.3949718200283733</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0007797063174822112</v>
+        <v>0.6932031759601238</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>flesch</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3096,13 +3096,13 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-0.06938371530363914</v>
+        <v>0.135646263064387</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2744497725527798</v>
+        <v>0.03203881722401754</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>flesch</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3127,13 +3127,13 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6.376658649688874</v>
+        <v>-1.81219754070033</v>
       </c>
       <c r="F87" t="n">
-        <v>0.002507096010648204</v>
+        <v>0.07116502852336233</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>cli</t>
+          <t>AbstractWords</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3158,10 +3158,10 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.1418646745687729</v>
+        <v>0.3467307690416931</v>
       </c>
       <c r="F88" t="n">
-        <v>0.02488434861442063</v>
+        <v>1.797354701944561e-08</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>cli</t>
+          <t>AbstractWords</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6.376658649688874</v>
+        <v>2.339160564331091</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0001321625806140404</v>
+        <v>0.02012171832863427</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3201,7 +3201,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>avg_concrete</t>
+          <t>ParaLen</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3220,10 +3220,10 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-0.009804174508785851</v>
+        <v>0.01695323229726273</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8774170034613193</v>
+        <v>0.789677095295703</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>avg_concrete</t>
+          <t>ParaLen</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3251,10 +3251,10 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6.376658649688874</v>
+        <v>0.9888777118150923</v>
       </c>
       <c r="F91" t="n">
-        <v>0.6932031759601238</v>
+        <v>0.3236867877189441</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>concrete_ratio</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3282,19 +3282,19 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.135646263064387</v>
+        <v>0.08032027514675262</v>
       </c>
       <c r="F92" t="n">
-        <v>0.03203881722401754</v>
+        <v>0.2056361394148667</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>concrete_ratio</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6.376658649688874</v>
+        <v>0.3879994285778098</v>
       </c>
       <c r="F93" t="n">
-        <v>0.07116502852336233</v>
+        <v>0.698349287627211</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>abstract_ratio</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.3467307690416931</v>
+        <v>0.170604145806593</v>
       </c>
       <c r="F94" t="n">
-        <v>1.797354701944561e-08</v>
+        <v>0.006854733898322928</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3356,7 +3356,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>abstract_ratio</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6.376658649688874</v>
+        <v>2.65452803650054</v>
       </c>
       <c r="F95" t="n">
-        <v>0.02012171832863427</v>
+        <v>0.008455784844018497</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3387,7 +3387,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>undefined_ratio</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>-0.2816197426539024</v>
+        <v>0.1510279687142408</v>
       </c>
       <c r="F96" t="n">
-        <v>6.1157357815702e-06</v>
+        <v>0.01686131815994093</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3418,7 +3418,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Gemini</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>undefined_ratio</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3437,10 +3437,10 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6.376658649688874</v>
+        <v>1.39053606539209</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1834355896978018</v>
+        <v>0.1656127031574762</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ratio_paras</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3468,10 +3468,10 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-0.1191791363791069</v>
+        <v>0.06817463595674358</v>
       </c>
       <c r="F98" t="n">
-        <v>0.05988278408126468</v>
+        <v>0.2829198124107184</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ratio_paras</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3499,10 +3499,10 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6.376658649688874</v>
+        <v>-0.609386025543284</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7070553746777581</v>
+        <v>0.5428264635221061</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ratio_list_items</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3530,10 +3530,10 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.06817463595674358</v>
+        <v>-0.1191791363791069</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2829198124107184</v>
+        <v>0.05988278408126468</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ratio_list_items</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3561,10 +3561,10 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6.376658649688874</v>
+        <v>0.3762464281381359</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5428264635221061</v>
+        <v>0.7070553746777581</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ratio_headings</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.1510279687142408</v>
+        <v>-0.1931147748956321</v>
       </c>
       <c r="F102" t="n">
-        <v>0.01686131815994093</v>
+        <v>0.002161953894812021</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ratio_headings</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3623,13 +3623,13 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6.376658649688874</v>
+        <v>-2.741962686328518</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1656127031574762</v>
+        <v>0.006552305770056005</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>avg_para_len</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3654,13 +3654,13 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.01695323229726273</v>
+        <v>0.2138891433476856</v>
       </c>
       <c r="F104" t="n">
-        <v>0.789677095295703</v>
+        <v>0.0006630506377996978</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>avg_para_len</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3685,13 +3685,13 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6.376658649688874</v>
+        <v>3.005017043411264</v>
       </c>
       <c r="F105" t="n">
-        <v>0.3236867877189441</v>
+        <v>0.002928000341405589</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>num_sentences</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3716,10 +3716,10 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.08032027514675262</v>
+        <v>0.05072063033345374</v>
       </c>
       <c r="F106" t="n">
-        <v>0.2056361394148667</v>
+        <v>0.4246044167359289</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>num_sentences</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3747,10 +3747,10 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6.376658649688874</v>
+        <v>-0.2951933418506243</v>
       </c>
       <c r="F107" t="n">
-        <v>0.698349287627211</v>
+        <v>0.7680931685827227</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>avg_len</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3778,13 +3778,13 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.170604145806593</v>
+        <v>-0.1078403639021908</v>
       </c>
       <c r="F108" t="n">
-        <v>0.006854733898322928</v>
+        <v>0.08884422268555361</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>avg_len</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3809,13 +3809,13 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>6.376658649688874</v>
+        <v>-1.430700835860262</v>
       </c>
       <c r="F109" t="n">
-        <v>0.008455784844018497</v>
+        <v>0.1537747605350973</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>flesch</t>
+          <t>AbstractWords</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3840,13 +3840,13 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-0.1931147748956321</v>
+        <v>0.0963943808811653</v>
       </c>
       <c r="F110" t="n">
-        <v>0.002161953894812021</v>
+        <v>0.1285027979052374</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>flesch</t>
+          <t>AbstractWords</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3871,19 +3871,19 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>6.376658649688874</v>
+        <v>1.61802675032839</v>
       </c>
       <c r="F111" t="n">
-        <v>0.006552305770056005</v>
+        <v>0.106927937022144</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>GPT 3.5</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>cli</t>
+          <t>ParaLen</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3902,19 +3902,19 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.2138891433476856</v>
+        <v>0.1207893504284489</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0006630506377996978</v>
+        <v>0.05648627994740076</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>GPT 3.5</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>cli</t>
+          <t>ParaLen</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3933,19 +3933,19 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6.376658649688874</v>
+        <v>-0.7631141410094239</v>
       </c>
       <c r="F113" t="n">
-        <v>0.002928000341405589</v>
+        <v>0.446120612572743</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>GPT 3.5</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>avg_concrete</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3964,19 +3964,19 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.05072063033345374</v>
+        <v>0.2548744182248688</v>
       </c>
       <c r="F114" t="n">
-        <v>0.4246044167359289</v>
+        <v>4.556936318217918e-05</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>GPT 3.5</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>avg_concrete</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3995,19 +3995,19 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>6.376658649688874</v>
+        <v>2.546414965701122</v>
       </c>
       <c r="F115" t="n">
-        <v>0.7680931685827227</v>
+        <v>0.01148914641436208</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>GPT 3.5</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>concrete_ratio</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4026,19 +4026,19 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-0.1078403639021908</v>
+        <v>0.1720954379335912</v>
       </c>
       <c r="F116" t="n">
-        <v>0.08884422268555361</v>
+        <v>0.006375584142079352</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>GPT 3.5</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>concrete_ratio</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4057,10 +4057,10 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>6.376658649688874</v>
+        <v>0.2083488579666407</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1537747605350973</v>
+        <v>0.835127595229181</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -4069,7 +4069,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>GPT 3.5</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>abstract_ratio</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4088,10 +4088,10 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.0963943808811653</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1285027979052374</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>GPT 3.5</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>abstract_ratio</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4118,12 +4118,8 @@
           <t>T-Test</t>
         </is>
       </c>
-      <c r="E119" t="n">
-        <v>6.376658649688874</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.106927937022144</v>
-      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
         <v>0</v>
       </c>
@@ -4131,7 +4127,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>GPT 3.5</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4141,7 +4137,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>undefined_ratio</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4150,19 +4146,19 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-0.05740426556566069</v>
+        <v>0.1449757927853161</v>
       </c>
       <c r="F120" t="n">
-        <v>0.3660813051316891</v>
+        <v>0.02185332567975597</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>GPT 3.5</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4172,7 +4168,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>undefined_ratio</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4181,10 +4177,10 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>6.376658649688874</v>
+        <v>0.8983371321270748</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6154329480648089</v>
+        <v>0.3698771730746541</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -4203,7 +4199,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>ratio_paras</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4234,7 +4230,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ratio_paras</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4243,7 +4239,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>6.376658649688874</v>
+        <v>-0.898337132127074</v>
       </c>
       <c r="F123" t="n">
         <v>0.3698771730746544</v>
@@ -4265,7 +4261,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>ratio_list_items</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4274,10 +4270,10 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.1449757927853161</v>
+        <v>-0.2236649269901459</v>
       </c>
       <c r="F124" t="n">
-        <v>0.02185332567975597</v>
+        <v>0.0003652647664416525</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4296,7 +4292,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ratio_list_items</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4305,13 +4301,13 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>6.376658649688874</v>
+        <v>-4.314074579712599</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3698771730746541</v>
+        <v>2.315946035682375e-05</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -4327,7 +4323,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>ratio_headings</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4336,13 +4332,13 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>0.2810731050616234</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>6.385729197287661e-06</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -4358,7 +4354,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>ratio_headings</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4367,11 +4363,13 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>6.376658649688874</v>
-      </c>
-      <c r="F127" t="inlineStr"/>
+        <v>5.44903505399711</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.220180555605453e-07</v>
+      </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -4387,7 +4385,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>avg_para_len</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4396,10 +4394,10 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.1207893504284489</v>
+        <v>-0.1217303955368686</v>
       </c>
       <c r="F128" t="n">
-        <v>0.05648627994740076</v>
+        <v>0.05457617170068907</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -4418,7 +4416,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>avg_para_len</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4427,13 +4425,13 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6.376658649688874</v>
+        <v>-2.875304795496707</v>
       </c>
       <c r="F129" t="n">
-        <v>0.446120612572743</v>
+        <v>0.004387071601397484</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -4449,7 +4447,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>num_sentences</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4458,10 +4456,10 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.2548744182248688</v>
+        <v>-0.2774304918078673</v>
       </c>
       <c r="F130" t="n">
-        <v>4.556936318217918e-05</v>
+        <v>8.49615154798995e-06</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4480,7 +4478,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>num_sentences</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4489,10 +4487,10 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>6.376658649688874</v>
+        <v>-3.054570091054561</v>
       </c>
       <c r="F131" t="n">
-        <v>0.01148914641436208</v>
+        <v>0.0024997550587072</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4511,7 +4509,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>avg_len</t>
+          <t>AbstractWords</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4520,13 +4518,13 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.1720954379335912</v>
+        <v>0.005060994889984108</v>
       </c>
       <c r="F132" t="n">
-        <v>0.006375584142079352</v>
+        <v>0.9365388242281915</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -4542,7 +4540,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>avg_len</t>
+          <t>AbstractWords</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4551,384 +4549,12 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>6.376658649688874</v>
+        <v>-0.1386832554651374</v>
       </c>
       <c r="F133" t="n">
-        <v>0.835127595229181</v>
+        <v>0.8898129955119743</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>GPT 3.5</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>ngram</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>flesch</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
-        <v>-0.2236649269901459</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.0003652647664416525</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>GPT 3.5</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>domain_specific</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>flesch</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>T-Test</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v>6.376658649688874</v>
-      </c>
-      <c r="F135" t="n">
-        <v>2.315946035682375e-05</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>GPT 3.5</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>ngram</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>cli</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E136" t="n">
-        <v>0.2810731050616234</v>
-      </c>
-      <c r="F136" t="n">
-        <v>6.385729197287661e-06</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>GPT 3.5</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>domain_specific</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>cli</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>T-Test</t>
-        </is>
-      </c>
-      <c r="E137" t="n">
-        <v>6.376658649688874</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1.220180555605453e-07</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>GPT 3.5</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>ngram</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>avg_concrete</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E138" t="n">
-        <v>-0.1217303955368686</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.05457617170068907</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>GPT 3.5</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>domain_specific</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>avg_concrete</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>T-Test</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>6.376658649688874</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.004387071601397484</v>
-      </c>
-      <c r="G139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>GPT 3.5</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>ngram</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>concrete_ratio</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v>-0.2774304918078673</v>
-      </c>
-      <c r="F140" t="n">
-        <v>8.49615154798995e-06</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>GPT 3.5</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>domain_specific</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>concrete_ratio</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>T-Test</t>
-        </is>
-      </c>
-      <c r="E141" t="n">
-        <v>6.376658649688874</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.0024997550587072</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>GPT 3.5</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>ngram</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>abstract_ratio</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E142" t="n">
-        <v>0.005060994889984108</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.9365388242281915</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>GPT 3.5</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>domain_specific</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>abstract_ratio</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>T-Test</t>
-        </is>
-      </c>
-      <c r="E143" t="n">
-        <v>6.376658649688874</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.8898129955119743</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>GPT 3.5</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>ngram</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>undefined_ratio</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E144" t="n">
-        <v>0.1094069459635183</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.08427683750462807</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>GPT 3.5</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>domain_specific</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>undefined_ratio</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>T-Test</t>
-        </is>
-      </c>
-      <c r="E145" t="n">
-        <v>6.376658649688874</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.1651969813984861</v>
-      </c>
-      <c r="G145" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Stats/QueryCategory_SignificanceTests.xlsx
+++ b/Stats/QueryCategory_SignificanceTests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +488,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.4156654316285117</v>
+        <v>30.04276447361351</v>
       </c>
       <c r="F2" t="n">
-        <v>7.290056809624596e-12</v>
+        <v>2.416149889734536e-20</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -509,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,17 +519,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.5110236561277185</v>
+        <v>0.4156654316285117</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6097891168066648</v>
+        <v>7.290056809624596e-12</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -545,19 +545,21 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ParaLen</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3957514503938567</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[0.8525603775462338, 14.988857410908471]</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>8.411862202643253e-11</v>
+        <v>7.290056809624596e-12</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -576,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ParaLen</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,10 +587,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.9664652985616541</v>
+        <v>-0.5110236561277185</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3347529195036262</v>
+        <v>0.6097891168066648</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -607,22 +609,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SentLen</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.08195002827096186</v>
+        <v>15.11746504858657</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1965569466260821</v>
+        <v>4.639562280189447e-11</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -633,27 +635,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SentLen</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.8775192418953064</v>
+        <v>0.3957514503938567</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3810539668047527</v>
+        <v>8.411862202643253e-11</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -669,19 +671,21 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HeadingSents</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.4042143827099164</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[0.2769674053646818, 3.475299577819159]</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>3.034499043965871e-11</v>
+        <v>8.411862202643253e-11</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -700,7 +704,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HeadingSents</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -709,10 +713,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.434010262460049</v>
+        <v>-0.9664652985616541</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6646583160566412</v>
+        <v>0.3347529195036262</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -731,19 +735,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ListSents</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1652429926730414</v>
+        <v>4.077289400145668</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008853842095328629</v>
+        <v>0.003222549258342073</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -757,24 +761,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ListSents</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.4308163924335011</v>
+        <v>-0.08195002827096186</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6669760763828263</v>
+        <v>0.1965569466260821</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -793,22 +797,24 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ParaSents</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>0.3625493376211115</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[-0.09716968258255278, 9.352224622951287]</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>3.508751273191228e-09</v>
+        <v>0.1965569466260821</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -824,7 +830,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ParaSents</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -833,10 +839,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.5586558636166522</v>
+        <v>0.8775192418953064</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5769006643389402</v>
+        <v>0.3810539668047527</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -855,19 +861,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FRES</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1898628816901851</v>
+        <v>17.83460663823905</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002574732522211576</v>
+        <v>7.260760777067698e-13</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -881,27 +887,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FRES</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1.06780905720397</v>
+        <v>-0.4042143827099164</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2866449665511901</v>
+        <v>3.034499043965871e-11</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -917,19 +923,21 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CLI</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.1957971748034819</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[-0.01981293266428805, 0.3242292001307766]</t>
+        </is>
       </c>
       <c r="F16" t="n">
-        <v>0.001867886333750315</v>
+        <v>3.034499043965871e-11</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -948,7 +956,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CLI</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,13 +965,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.899814152050229</v>
+        <v>0.434010262460049</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00406870559065752</v>
+        <v>0.6646583160566412</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -979,19 +987,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Conc</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.00699331616857954</v>
+        <v>2.0593972865124</v>
       </c>
       <c r="F18" t="n">
-        <v>0.912392533222123</v>
+        <v>0.08675478147677471</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1005,27 +1013,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Conc</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-1.264269579084952</v>
+        <v>0.1652429926730414</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2073201997734881</v>
+        <v>0.008853842095328629</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1041,22 +1049,24 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ConcreteWords</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>-0.04857940345404947</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[0.00219406103853644, 0.0025818419593739783]</t>
+        </is>
       </c>
       <c r="F20" t="n">
-        <v>0.4444442284669425</v>
+        <v>0.008853842095328629</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1072,7 +1082,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ConcreteWords</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1081,13 +1091,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-3.459732991901614</v>
+        <v>0.4308163924335011</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0006363868322553607</v>
+        <v>0.6669760763828263</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1103,22 +1113,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AbstractWords</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.012177339494859</v>
+        <v>14.94180613464664</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8480689995925584</v>
+        <v>6.096441171619123e-11</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1129,33 +1139,33 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AbstractWords</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2811019008583373</v>
+        <v>0.3625493376211115</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7788666277271206</v>
+        <v>3.508751273191228e-09</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1165,19 +1175,21 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ParaLen</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>0.2706030287491749</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[0.01778333736087222, 0.6731077911555247]</t>
+        </is>
       </c>
       <c r="F24" t="n">
-        <v>1.435361190039127e-05</v>
+        <v>3.508751273191228e-09</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1186,7 +1198,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1196,7 +1208,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParaLen</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1205,19 +1217,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.718749489404479</v>
+        <v>-0.5586558636166522</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0002475920537611846</v>
+        <v>0.5769006643389402</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1227,59 +1239,59 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-0.007163575672257998</v>
+        <v>7.451019767410003</v>
       </c>
       <c r="F26" t="n">
-        <v>0.910268492753239</v>
+        <v>1.115351666487615e-05</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-0.2457137968166855</v>
+        <v>0.1898628816901851</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8061070162773634</v>
+        <v>0.002574732522211576</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1289,19 +1301,21 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SentLen</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>0.3002501592363305</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>[2.8140923111913456, 55.0705732846238]</t>
+        </is>
       </c>
       <c r="F28" t="n">
-        <v>1.327357544064294e-06</v>
+        <v>0.002574732522211576</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1310,7 +1324,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1320,7 +1334,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SentLen</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1329,10 +1343,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.409054380807944</v>
+        <v>-1.06780905720397</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1600716953112943</v>
+        <v>0.2866449665511901</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1341,7 +1355,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1351,19 +1365,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HeadingSents</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-0.2432286417305614</v>
+        <v>10.13633079419866</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0001023246302665808</v>
+        <v>1.310176865284205e-07</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1372,38 +1386,38 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HeadingSents</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-0.9450429894567727</v>
+        <v>-0.1957971748034819</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3455567392618174</v>
+        <v>0.001867886333750315</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1413,28 +1427,30 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ListSents</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>-0.05643116850915467</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[-0.5618935592545736, 12.059318256123044]</t>
+        </is>
       </c>
       <c r="F32" t="n">
-        <v>0.3742762753598845</v>
+        <v>0.001867886333750315</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1444,7 +1460,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ListSents</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1453,10 +1469,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5.241520405154095</v>
+        <v>2.899814152050229</v>
       </c>
       <c r="F33" t="n">
-        <v>3.407881988602243e-07</v>
+        <v>0.00406870559065752</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1465,7 +1481,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1475,19 +1491,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ParaSents</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.108955575943751</v>
+        <v>0.6004122995042253</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08557300867825444</v>
+        <v>0.6626848326303885</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1496,38 +1512,38 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ParaSents</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-4.758154856355904</v>
+        <v>0.00699331616857954</v>
       </c>
       <c r="F35" t="n">
-        <v>3.31988830054383e-06</v>
+        <v>0.912392533222123</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1537,19 +1553,21 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FRES</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>0.009200056414874385</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[0.0010889991328945571, 2.406048557904164]</t>
+        </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8849163772611623</v>
+        <v>0.912392533222123</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1558,7 +1576,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1568,7 +1586,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>FRES</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1577,19 +1595,19 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-2.792686306308226</v>
+        <v>-1.264269579084952</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005634753888853091</v>
+        <v>0.2073201997734881</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1599,59 +1617,59 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CLI</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-0.07119545115652605</v>
+        <v>3.026617501667137</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2620831090276431</v>
+        <v>0.01838550579923876</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CLI</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3.70214258322679</v>
+        <v>-0.04857940345404947</v>
       </c>
       <c r="F39" t="n">
-        <v>0.000263462678116794</v>
+        <v>0.4444442284669425</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1661,19 +1679,21 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Conc</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>-0.06386240235152611</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[-0.0010157926907276582, 0.04439068074883794]</t>
+        </is>
       </c>
       <c r="F40" t="n">
-        <v>0.3145503679343439</v>
+        <v>0.4444442284669425</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1682,7 +1702,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1692,7 +1712,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Conc</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1701,19 +1721,19 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-1.18244091632259</v>
+        <v>-3.459732991901614</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2381632171109009</v>
+        <v>0.0006363868322553607</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1723,59 +1743,59 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ConcreteWords</t>
+          <t>AbstractWords</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1096471257520291</v>
+        <v>8.930415387356073</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08359359283948428</v>
+        <v>9.524447452765196e-07</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ConcreteWords</t>
+          <t>AbstractWords</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-2.92412250034188</v>
+        <v>0.012177339494859</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003773924772129364</v>
+        <v>0.8480689995925584</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1790,23 +1810,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>0.337641969798087</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>[0.0008905599226712536, 0.428644330409814]</t>
+        </is>
       </c>
       <c r="F44" t="n">
-        <v>4.414509187849658e-08</v>
+        <v>0.8480689995925584</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Google RR</t>
+          <t>Google SERP</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1825,10 +1847,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1.340815768626459</v>
+        <v>0.2811019008583373</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1812070897962658</v>
+        <v>0.7788666277271206</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1837,7 +1859,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1852,14 +1874,14 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.2740410623489418</v>
+        <v>7.796596841046665</v>
       </c>
       <c r="F46" t="n">
-        <v>1.104189923837415e-05</v>
+        <v>6.262965646478482e-06</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -1868,12 +1890,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1883,14 +1905,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.533709933808033</v>
+        <v>0.2706030287491749</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01190296933482046</v>
+        <v>1.435361190039127e-05</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -1899,7 +1921,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1909,19 +1931,21 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ParaLen</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>0.4329009808594341</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[3.8962074798504593, 17.551128374248393]</t>
+        </is>
       </c>
       <c r="F48" t="n">
-        <v>7.676511490134417e-13</v>
+        <v>1.435361190039127e-05</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -1930,7 +1954,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1940,7 +1964,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ParaLen</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1949,19 +1973,19 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.3064031585564667</v>
+        <v>3.718749489404479</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7595547845270134</v>
+        <v>0.0002475920537611846</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1971,19 +1995,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SentLen</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-0.01010497087601963</v>
+        <v>1.334686133121661</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8736870223002212</v>
+        <v>0.2576072132714489</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1992,38 +2016,38 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SentLen</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2.687557929946071</v>
+        <v>-0.007163575672257998</v>
       </c>
       <c r="F51" t="n">
-        <v>0.007684878109720279</v>
+        <v>0.910268492753239</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2033,28 +2057,30 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HeadingSents</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>-0.4449840674324707</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[-0.3325818419593754, 118.34314972494279]</t>
+        </is>
       </c>
       <c r="F52" t="n">
-        <v>1.465728012131996e-13</v>
+        <v>0.910268492753239</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2064,7 +2090,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HeadingSents</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2073,10 +2099,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-1.381552673369437</v>
+        <v>-0.2457137968166855</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1683524480314909</v>
+        <v>0.8061070162773634</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2085,7 +2111,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2095,19 +2121,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ListSents</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.2847069272159338</v>
+        <v>14.75768070330366</v>
       </c>
       <c r="F54" t="n">
-        <v>4.783473231269815e-06</v>
+        <v>8.121528232797081e-11</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2116,38 +2142,38 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ListSents</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1.42729445846113</v>
+        <v>0.3002501592363305</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1547529164352007</v>
+        <v>1.327357544064294e-06</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2157,19 +2183,21 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ParaSents</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>0.2823383634809268</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>[0.3583421228446744, 4.241120698233095]</t>
+        </is>
       </c>
       <c r="F56" t="n">
-        <v>5.77728356484894e-06</v>
+        <v>1.327357544064294e-06</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2178,7 +2206,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2188,7 +2216,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ParaSents</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2197,10 +2225,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.5705781253869143</v>
+        <v>1.409054380807944</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5688022537293917</v>
+        <v>0.1600716953112943</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2209,7 +2237,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2219,50 +2247,50 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>FRES</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>-0.003095396762638224</v>
+        <v>5.436334137844169</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9611604805358258</v>
+        <v>0.0003287268275212706</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>FRES</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-4.482257353555724</v>
+        <v>-0.2432286417305614</v>
       </c>
       <c r="F59" t="n">
-        <v>1.129039385324715e-05</v>
+        <v>0.0001023246302665808</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2271,7 +2299,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2281,28 +2309,30 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CLI</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>0.1138838555619238</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>[-0.008073035864049241, 0.08000838675745214]</t>
+        </is>
       </c>
       <c r="F60" t="n">
-        <v>0.07225785157104053</v>
+        <v>0.0001023246302665808</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2312,7 +2342,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CLI</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2321,19 +2351,19 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6.785449430442363</v>
+        <v>-0.9450429894567727</v>
       </c>
       <c r="F61" t="n">
-        <v>8.456425073138101e-11</v>
+        <v>0.3455567392618174</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2343,19 +2373,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Conc</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.09714333231554134</v>
+        <v>1.578536811666071</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1255474492554138</v>
+        <v>0.1805890994604573</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2364,29 +2394,29 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Conc</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-1.114618484889616</v>
+        <v>-0.05643116850915467</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2660929420898918</v>
+        <v>0.3742762753598845</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2395,7 +2425,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2405,19 +2435,21 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ConcreteWords</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>-0.07546828440789753</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>[-0.008230678474463037, 0.35799456992992085]</t>
+        </is>
       </c>
       <c r="F64" t="n">
-        <v>0.2344496584120191</v>
+        <v>0.3742762753598845</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2426,7 +2458,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2436,7 +2468,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ConcreteWords</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2445,10 +2477,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-2.049793378016911</v>
+        <v>5.241520405154095</v>
       </c>
       <c r="F65" t="n">
-        <v>0.04143641088197737</v>
+        <v>3.407881988602243e-07</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2457,7 +2489,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2467,19 +2499,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>AbstractWords</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-0.1823685592431328</v>
+        <v>2.646543307565001</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003811537855976243</v>
+        <v>0.03411798951953601</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2488,29 +2520,29 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Bing SERP</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>AbstractWords</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.3390051772366994</v>
+        <v>0.108955575943751</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7348926991693939</v>
+        <v>0.08557300867825444</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2519,7 +2551,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2529,28 +2561,30 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParaLen</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>0.2387828846805937</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>[0.01655460631991926, 0.5620460845214572]</t>
+        </is>
       </c>
       <c r="F68" t="n">
-        <v>0.0001379282971436292</v>
+        <v>0.08557300867825444</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2560,7 +2594,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ParaLen</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2569,10 +2603,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3.648523328440498</v>
+        <v>-4.758154856355904</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0003215063545993465</v>
+        <v>3.31988830054383e-06</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2581,7 +2615,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2591,50 +2625,50 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.1178379117155502</v>
+        <v>2.949761975678677</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06283883431455768</v>
+        <v>0.02084804783417804</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.8481562754006752</v>
+        <v>0.009200056414874385</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3971688015172485</v>
+        <v>0.8849163772611623</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2643,7 +2677,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2653,28 +2687,30 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SentLen</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>0.4419538931702681</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>[0.1052472671964052, 58.55303700123669]</t>
+        </is>
       </c>
       <c r="F72" t="n">
-        <v>2.233955095637689e-13</v>
+        <v>0.8849163772611623</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2684,7 +2720,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SentLen</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2693,10 +2729,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3.401993842361422</v>
+        <v>-2.792686306308226</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0007797063174822112</v>
+        <v>0.005634753888853091</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2705,7 +2741,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2715,59 +2751,59 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HeadingSents</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.1792386545067842</v>
+        <v>2.327388782260947</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004470965582844794</v>
+        <v>0.05689115401082771</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HeadingSents</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1.979336611788014</v>
+        <v>-0.07119545115652605</v>
       </c>
       <c r="F75" t="n">
-        <v>0.04888402633279819</v>
+        <v>0.2620831090276431</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2777,28 +2813,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ListSents</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>-0.1765439377792074</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>[-0.15298397987178217, 12.222872819798434]</t>
+        </is>
       </c>
       <c r="F76" t="n">
-        <v>0.005119170626380526</v>
+        <v>0.2620831090276431</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2808,7 +2846,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ListSents</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2817,10 +2855,10 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3.410669565139767</v>
+        <v>3.70214258322679</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0007563998149379877</v>
+        <v>0.000263462678116794</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -2829,7 +2867,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2839,59 +2877,59 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ParaSents</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.1783532385816948</v>
+        <v>1.220733458056124</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004675297501918927</v>
+        <v>0.3025472597471854</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ParaSents</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>-3.418258926012688</v>
+        <v>-0.06386240235152611</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0007365470263683305</v>
+        <v>0.3145503679343439</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2901,19 +2939,21 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>FRES</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>-0.06938371530363914</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>[-0.010343999203968793, 2.4539554222519153]</t>
+        </is>
       </c>
       <c r="F80" t="n">
-        <v>0.2744497725527798</v>
+        <v>0.3145503679343439</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2922,7 +2962,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2932,7 +2972,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>FRES</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2941,19 +2981,19 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>-3.053656881032697</v>
+        <v>-1.18244091632259</v>
       </c>
       <c r="F81" t="n">
-        <v>0.002507096010648204</v>
+        <v>0.2381632171109009</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2963,19 +3003,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CLI</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.1418646745687729</v>
+        <v>5.198198773276937</v>
       </c>
       <c r="F82" t="n">
-        <v>0.02488434861442063</v>
+        <v>0.0004908123446402484</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -2984,38 +3024,38 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CLI</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3.883398135637343</v>
+        <v>0.1096471257520291</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0001321625806140404</v>
+        <v>0.08359359283948428</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3025,19 +3065,21 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Conc</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>-0.009804174508785851</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>[0.0015336394262889315, 0.03619212781986951]</t>
+        </is>
       </c>
       <c r="F84" t="n">
-        <v>0.8774170034613193</v>
+        <v>0.08359359283948428</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -3046,7 +3088,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3056,7 +3098,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Conc</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3065,19 +3107,19 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-0.3949718200283733</v>
+        <v>-2.92412250034188</v>
       </c>
       <c r="F85" t="n">
-        <v>0.6932031759601238</v>
+        <v>0.003773924772129364</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3087,19 +3129,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ConcreteWords</t>
+          <t>AbstractWords</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.135646263064387</v>
+        <v>23.90679556213794</v>
       </c>
       <c r="F86" t="n">
-        <v>0.03203881722401754</v>
+        <v>1.041159360649355e-16</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3108,38 +3150,38 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ConcreteWords</t>
+          <t>AbstractWords</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>-1.81219754070033</v>
+        <v>0.337641969798087</v>
       </c>
       <c r="F87" t="n">
-        <v>0.07116502852336233</v>
+        <v>4.414509187849658e-08</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3154,14 +3196,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>0.3467307690416931</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>[0.03378512843110777, 0.3128078579652873]</t>
+        </is>
       </c>
       <c r="F88" t="n">
-        <v>1.797354701944561e-08</v>
+        <v>4.414509187849658e-08</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3170,7 +3214,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Bing RR</t>
+          <t>Google RR</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3189,19 +3233,19 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.339160564331091</v>
+        <v>1.340815768626459</v>
       </c>
       <c r="F89" t="n">
-        <v>0.02012171832863427</v>
+        <v>0.1812070897962658</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3216,28 +3260,28 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.01695323229726273</v>
+        <v>6.980689827842381</v>
       </c>
       <c r="F90" t="n">
-        <v>0.789677095295703</v>
+        <v>2.451146535141082e-05</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3247,23 +3291,23 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.9888777118150923</v>
+        <v>0.2740410623489418</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3236867877189441</v>
+        <v>1.104189923837415e-05</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3273,28 +3317,30 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ParaLen</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>0.08032027514675262</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>[0.9719997441328235, 21.04432856188432]</t>
+        </is>
       </c>
       <c r="F92" t="n">
-        <v>0.2056361394148667</v>
+        <v>1.104189923837415e-05</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3304,7 +3350,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ParaLen</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3313,19 +3359,19 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.3879994285778098</v>
+        <v>2.533709933808033</v>
       </c>
       <c r="F93" t="n">
-        <v>0.698349287627211</v>
+        <v>0.01190296933482046</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3335,19 +3381,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SentLen</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.170604145806593</v>
+        <v>14.81467056504983</v>
       </c>
       <c r="F94" t="n">
-        <v>0.006854733898322928</v>
+        <v>7.431168106452352e-11</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3356,29 +3402,29 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SentLen</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2.65452803650054</v>
+        <v>0.4329009808594341</v>
       </c>
       <c r="F95" t="n">
-        <v>0.008455784844018497</v>
+        <v>7.676511490134417e-13</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3387,7 +3433,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3397,19 +3443,21 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HeadingSents</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>0.1510279687142408</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>[0.4191326102716457, 3.5138247878434656]</t>
+        </is>
       </c>
       <c r="F96" t="n">
-        <v>0.01686131815994093</v>
+        <v>7.676511490134417e-13</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3418,7 +3466,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3428,7 +3476,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>HeadingSents</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3437,10 +3485,10 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1.39053606539209</v>
+        <v>0.3064031585564667</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1656127031574762</v>
+        <v>0.7595547845270134</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -3449,7 +3497,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3459,19 +3507,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ListSents</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.06817463595674358</v>
+        <v>0.601784775523003</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2829198124107184</v>
+        <v>0.66169856153219</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -3480,29 +3528,29 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ListSents</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-0.609386025543284</v>
+        <v>-0.01010497087601963</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5428264635221061</v>
+        <v>0.8736870223002212</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -3511,7 +3559,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3521,19 +3569,21 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ParaSents</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>-0.1191791363791069</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>[-0.017966708837368055, 12.195694892606861]</t>
+        </is>
       </c>
       <c r="F100" t="n">
-        <v>0.05988278408126468</v>
+        <v>0.8736870223002212</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -3542,7 +3592,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3552,7 +3602,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParaSents</t>
+          <t>SentLen</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3561,19 +3611,19 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.3762464281381359</v>
+        <v>2.687557929946071</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7070553746777581</v>
+        <v>0.007684878109720279</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3583,19 +3633,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>FRES</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-0.1931147748956321</v>
+        <v>17.21061194929621</v>
       </c>
       <c r="F102" t="n">
-        <v>0.002161953894812021</v>
+        <v>1.865579609179739e-12</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -3604,29 +3654,29 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>FRES</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-2.741962686328518</v>
+        <v>-0.4449840674324707</v>
       </c>
       <c r="F103" t="n">
-        <v>0.006552305770056005</v>
+        <v>1.465728012131996e-13</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3635,7 +3685,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3645,19 +3695,21 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CLI</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>0.2138891433476856</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>[-0.02083682781560506, 0.3023576738830688]</t>
+        </is>
       </c>
       <c r="F104" t="n">
-        <v>0.0006630506377996978</v>
+        <v>1.465728012131996e-13</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -3666,7 +3718,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3676,7 +3728,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CLI</t>
+          <t>HeadingSents</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3685,19 +3737,19 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>3.005017043411264</v>
+        <v>-1.381552673369437</v>
       </c>
       <c r="F105" t="n">
-        <v>0.002928000341405589</v>
+        <v>0.1683524480314909</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3707,59 +3759,59 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Conc</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.05072063033345374</v>
+        <v>5.786686673156753</v>
       </c>
       <c r="F106" t="n">
-        <v>0.4246044167359289</v>
+        <v>0.000182266391995583</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Conc</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-0.2951933418506243</v>
+        <v>0.2847069272159338</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7680931685827227</v>
+        <v>4.783473231269815e-06</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3769,28 +3821,30 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ConcreteWords</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>-0.1078403639021908</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>[0.007521784247110836, 8.216179334460255e-05]</t>
+        </is>
       </c>
       <c r="F108" t="n">
-        <v>0.08884422268555361</v>
+        <v>4.783473231269815e-06</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3800,7 +3854,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ConcreteWords</t>
+          <t>ListSents</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3809,10 +3863,10 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>-1.430700835860262</v>
+        <v>1.42729445846113</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1537747605350973</v>
+        <v>0.1547529164352007</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3821,7 +3875,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3831,59 +3885,59 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>AbstractWords</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.0963943808811653</v>
+        <v>6.828886257208126</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1285027979052374</v>
+        <v>3.161729715119894e-05</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Gemini</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>AbstractWords</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1.61802675032839</v>
+        <v>0.2823383634809268</v>
       </c>
       <c r="F111" t="n">
-        <v>0.106927937022144</v>
+        <v>5.77728356484894e-06</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3893,28 +3947,30 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ParaLen</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>0.1207893504284489</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>[0.013315043568494226, 0.6975601643235867]</t>
+        </is>
       </c>
       <c r="F112" t="n">
-        <v>0.05648627994740076</v>
+        <v>5.77728356484894e-06</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3924,7 +3980,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ParaLen</t>
+          <t>ParaSents</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3933,10 +3989,10 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-0.7631141410094239</v>
+        <v>0.5705781253869143</v>
       </c>
       <c r="F113" t="n">
-        <v>0.446120612572743</v>
+        <v>0.5688022537293917</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -3945,7 +4001,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3955,59 +4011,59 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.2548744182248688</v>
+        <v>1.078248697897085</v>
       </c>
       <c r="F114" t="n">
-        <v>4.556936318217918e-05</v>
+        <v>0.3678198400022155</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2.546414965701122</v>
+        <v>-0.003095396762638224</v>
       </c>
       <c r="F115" t="n">
-        <v>0.01148914641436208</v>
+        <v>0.9611604805358258</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4017,28 +4073,30 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SentLen</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>0.1720954379335912</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>[-0.03971925684800109, 57.51838348803822]</t>
+        </is>
       </c>
       <c r="F116" t="n">
-        <v>0.006375584142079352</v>
+        <v>0.9611604805358258</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4048,7 +4106,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SentLen</t>
+          <t>FRES</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4057,19 +4115,19 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.2083488579666407</v>
+        <v>-4.482257353555724</v>
       </c>
       <c r="F117" t="n">
-        <v>0.835127595229181</v>
+        <v>1.129039385324715e-05</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4079,19 +4137,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>HeadingSents</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1.244649829272924</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>0.2925984581714197</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -4100,26 +4158,30 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HeadingSents</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>T-Test</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0.1138838555619238</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.07225785157104053</v>
+      </c>
       <c r="G119" t="n">
         <v>0</v>
       </c>
@@ -4127,7 +4189,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4137,28 +4199,30 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ListSents</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>0.1449757927853161</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>[0.25791269243343906, 11.169223727416165]</t>
+        </is>
       </c>
       <c r="F120" t="n">
-        <v>0.02185332567975597</v>
+        <v>0.07225785157104053</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4168,7 +4232,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ListSents</t>
+          <t>CLI</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4177,19 +4241,19 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.8983371321270748</v>
+        <v>6.785449430442363</v>
       </c>
       <c r="F121" t="n">
-        <v>0.3698771730746541</v>
+        <v>8.456425073138101e-11</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4199,50 +4263,50 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>ParaSents</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-0.1449757927853162</v>
+        <v>0.8450574728646788</v>
       </c>
       <c r="F122" t="n">
-        <v>0.02185332567975588</v>
+        <v>0.4977959836576414</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ParaSents</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>-0.898337132127074</v>
+        <v>0.09714333231554134</v>
       </c>
       <c r="F123" t="n">
-        <v>0.3698771730746544</v>
+        <v>0.1255474492554138</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -4251,7 +4315,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4261,28 +4325,30 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>FRES</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v>-0.2236649269901459</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>[0.015385151174856787, 2.3215342080200148]</t>
+        </is>
       </c>
       <c r="F124" t="n">
-        <v>0.0003652647664416525</v>
+        <v>0.1255474492554138</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4292,7 +4358,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>FRES</t>
+          <t>Conc</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4301,19 +4367,19 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-4.314074579712599</v>
+        <v>-1.114618484889616</v>
       </c>
       <c r="F125" t="n">
-        <v>2.315946035682375e-05</v>
+        <v>0.2660929420898918</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4323,59 +4389,59 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>CLI</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.2810731050616234</v>
+        <v>0.5700035699833049</v>
       </c>
       <c r="F126" t="n">
-        <v>6.385729197287661e-06</v>
+        <v>0.6846482984783138</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>CLI</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>5.44903505399711</v>
+        <v>-0.07546828440789753</v>
       </c>
       <c r="F127" t="n">
-        <v>1.220180555605453e-07</v>
+        <v>0.2344496584120191</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4385,19 +4451,21 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Conc</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>-0.1217303955368686</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>[-0.002117300885584727, 0.04884959274474406]</t>
+        </is>
       </c>
       <c r="F128" t="n">
-        <v>0.05457617170068907</v>
+        <v>0.2344496584120191</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -4406,7 +4474,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4416,7 +4484,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Conc</t>
+          <t>ConcreteWords</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4425,10 +4493,10 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>-2.875304795496707</v>
+        <v>-2.049793378016911</v>
       </c>
       <c r="F129" t="n">
-        <v>0.004387071601397484</v>
+        <v>0.04143641088197737</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4437,7 +4505,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4447,19 +4515,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ConcreteWords</t>
+          <t>AbstractWords</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>ANOVA</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>-0.2774304918078673</v>
+        <v>6.681384376486936</v>
       </c>
       <c r="F130" t="n">
-        <v>8.49615154798995e-06</v>
+        <v>4.049712283719178e-05</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4468,29 +4536,29 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>domain_specific</t>
+          <t>ngram</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ConcreteWords</t>
+          <t>AbstractWords</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>T-Test</t>
+          <t>correlation_coeff</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>-3.054570091054561</v>
+        <v>-0.1823685592431328</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0024997550587072</v>
+        <v>0.003811537855976243</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4499,7 +4567,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>GPT 3.5</t>
+          <t>Bing SERP</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4514,47 +4582,4199 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
-        </is>
-      </c>
-      <c r="E132" t="n">
-        <v>0.005060994889984108</v>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>[-0.01330509317829678, 0.5652179846195398]</t>
+        </is>
       </c>
       <c r="F132" t="n">
-        <v>0.9365388242281915</v>
+        <v>0.003811537855976243</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
+          <t>Bing SERP</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>AbstractWords</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0.3390051772366994</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.7348926991693939</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>ParaLen</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>7.379682333276095</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.256661369642103e-05</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>ParaLen</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0.2387828846805937</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.0001379282971436292</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>ParaLen</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>[7.83731012523277, 7.592986964988835]</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0001379282971436292</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>ParaLen</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>3.648523328440498</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.0003215063545993465</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>2.583475716480879</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.03776978285103346</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0.1178379117155502</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.06283883431455768</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>[6.431487441186087, 119.03329357915534]</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0.06283883431455768</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0.8481562754006752</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.3971688015172485</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>SentLen</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>23.04207642306476</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3.542171021430397e-16</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>SentLen</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0.4419538931702681</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2.233955095637689e-13</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>SentLen</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>[0.7127849720678334, 2.951564201339038]</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>2.233955095637689e-13</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>SentLen</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>3.401993842361422</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.0007797063174822112</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>HeadingSents</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>5.125898341163088</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.0005543151081974815</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>HeadingSents</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0.1792386545067842</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.004470965582844794</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>HeadingSents</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>[0.0049592744744061746, 0.04062943325420404]</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0.004470965582844794</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>HeadingSents</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>1.979336611788014</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.04888402633279819</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>ListSents</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>6.909690492402372</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2.76099912571669e-05</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>ListSents</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>-0.1765439377792074</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.005119170626380526</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>ListSents</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>[-0.024781020341440536, 0.44713912066980344]</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0.005119170626380526</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ListSents</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>3.410669565139767</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.0007563998149379877</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>ParaSents</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>5.427566501726622</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.000333614579102092</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>ParaSents</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0.1783532385816948</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.004675297501918927</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>ParaSents</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>[0.024783863310068373, 0.49365463617108973]</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>0.004675297501918927</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>ParaSents</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>-3.418258926012688</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.0007365470263683305</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>FRES</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0.9147543695179007</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.4559197325608186</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>FRES</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>-0.06938371530363914</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.2744497725527798</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>FRES</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>[-0.8439537164707391, 60.86812236136974]</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0.2744497725527798</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>FRES</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>-3.053656881032697</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.002507096010648204</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>CLI</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>2.638397443570824</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.03456960035811697</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>CLI</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0.1418646745687729</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.02488434861442063</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>CLI</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>[0.35016375499296365, 11.019720394035453]</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>0.02488434861442063</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>CLI</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>3.883398135637343</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.0001321625806140404</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Conc</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>0.2695682323385952</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.8973869926348429</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Conc</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>-0.009804174508785851</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.8774170034613193</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Conc</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>[-0.0024459480589631814, 2.4230913019374833]</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>0.8774170034613193</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Conc</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>-0.3949718200283733</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.6932031759601238</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>ConcreteWords</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>5.149426017728443</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.0005327975000973145</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>ConcreteWords</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>0.135646263064387</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.03203881722401754</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>ConcreteWords</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>[0.002394063881505068, 0.03242263571621488]</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>0.03203881722401754</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>ConcreteWords</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>-1.81219754070033</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.07116502852336233</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>AbstractWords</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>22.2302208764815</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1.130098632265394e-15</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>AbstractWords</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>0.3467307690416931</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1.797354701944561e-08</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>AbstractWords</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>[0.03858334873274675, 0.28247096618288814]</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>1.797354701944561e-08</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Bing RR</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>AbstractWords</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>2.339160564331091</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.02012171832863427</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>ParaLen</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>0.7021764620375842</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.5911263798545091</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>ParaLen</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>0.01695323229726273</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.789677095295703</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>ParaLen</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>[0.21584173193648784, 12.013011556667474]</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>0.789677095295703</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>ParaLen</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>0.9888777118150923</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.3236867877189441</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>1.026221833808752</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.3943017499097548</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>0.08032027514675262</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.2056361394148667</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>[1.6468322222064276, 33.39555644003468]</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>0.2056361394148667</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>0.3879994285778098</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.698349287627211</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>SentLen</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>3.609733034038378</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.007024526615116672</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>SentLen</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>0.170604145806593</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.006854733898322928</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>SentLen</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>[0.5242867702454903, 5.120866252540904]</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0.006854733898322928</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>SentLen</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>2.65452803650054</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.008455784844018497</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>HeadingSents</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>2.727887416745798</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.02991194135937748</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>HeadingSents</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>0.1510279687142408</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.01686131815994093</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>HeadingSents</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>[0.011721275355726448, 0.06858007931882472]</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>0.01686131815994093</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>HeadingSents</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>1.39053606539209</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.1656127031574762</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>ListSents</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>3.311487684712811</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.01150973857021944</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>ListSents</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>0.06817463595674358</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.2829198124107184</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>ListSents</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>[0.016233208716541814, 0.3603118736584742]</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.2829198124107184</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>ListSents</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>-0.609386025543284</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.5428264635221061</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>ParaSents</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>3.12865603007111</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.01555245412563184</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>ParaSents</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>-0.1191791363791069</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.05988278408126468</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>ParaSents</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>[-0.030105047690798734, 0.5726706847289941]</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.05988278408126468</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>ParaSents</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>0.3762464281381359</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.7070553746777581</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>FRES</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>2.514883662002758</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.04217219654099254</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>FRES</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>-0.1931147748956321</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.002161953894812021</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>FRES</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>[-5.158871341454746, 53.385121465834615]</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0.002161953894812021</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>FRES</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>-2.741962686328518</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.006552305770056005</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>CLI</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>3.481693059810161</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.008686483471454398</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>CLI</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>0.2138891433476856</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.0006630506377996978</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>CLI</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>[1.59059233251361, 10.339379237800111]</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0.0006630506377996978</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>CLI</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>3.005017043411264</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.002928000341405589</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Conc</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>0.6635890996342337</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.6178466295252016</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Conc</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>0.05072063033345374</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.4246044167359289</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Conc</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>[0.030425734552019204, 2.2788650869237657]</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>0.4246044167359289</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Conc</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>-0.2951933418506243</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.7680931685827227</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>ConcreteWords</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>1.413231071056783</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.2301081076361356</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>ConcreteWords</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>-0.1078403639021908</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.08884422268555361</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>ConcreteWords</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>[-0.007673172326543377, 0.06765028642908927]</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0.08884422268555361</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>ConcreteWords</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>-1.430700835860262</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.1537747605350973</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>AbstractWords</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>1.728213747249857</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.1443190215019915</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>AbstractWords</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>0.0963943808811653</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.1285027979052374</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>AbstractWords</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>[0.0164303685908826, 0.43935891057442183]</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>0.1285027979052374</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>AbstractWords</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>1.61802675032839</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.106927937022144</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
           <t>GPT 3.5</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>ParaLen</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>2.665779787762038</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.03307417078911418</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>ParaLen</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>0.1207893504284489</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.05648627994740076</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>ParaLen</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>[3.2162040682881066, 45.812175866039325]</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>0.05648627994740076</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
         <is>
           <t>domain_specific</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>ParaLen</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>-0.7631141410094239</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.446120612572743</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>7.003047189434493</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2.360989290958611e-05</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>0.2548744182248688</v>
+      </c>
+      <c r="F227" t="n">
+        <v>4.556936318217918e-05</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>[1.0539311148701476, 1.8575672717451557]</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>4.556936318217918e-05</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>2.546414965701122</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.01148914641436208</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>SentLen</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>2.100104021488703</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.08141075336008984</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>SentLen</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>0.1720954379335912</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.006375584142079352</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>SentLen</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>[1.0069149525934982, 14.852654764104678]</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>0.006375584142079352</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>SentLen</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>0.2083488579666407</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.835127595229181</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>HeadingSents</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>HeadingSents</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>0</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>HeadingSents</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>1</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>HeadingSents</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>ListSents</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>4.282174245654335</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.002287076122707685</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>ListSents</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>0.1449757927853161</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.02185332567975597</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>ListSents</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>[0.011731225745923895, -0.008641771738048875]</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>0.02185332567975597</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>ListSents</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>0.8983371321270748</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.3698771730746541</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>ParaSents</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>4.282174245654337</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.002287076122707685</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>ParaSents</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>-0.1449757927853162</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.02185332567975588</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>ParaSents</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>[-0.011731225745923902, 1.008641771738049]</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>0.02185332567975588</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>ParaSents</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>-0.898337132127074</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.3698771730746544</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>FRES</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>4.459563169280087</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.0016987226472923</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>FRES</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>-0.2236649269901459</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.0003652647664416525</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>FRES</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>[-5.615795675844719, 59.357847304155]</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>0.0003652647664416525</v>
+      </c>
+      <c r="G248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>FRES</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>-4.314074579712599</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2.315946035682375e-05</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>CLI</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>8.242421638337541</v>
+      </c>
+      <c r="F250" t="n">
+        <v>2.980707440620298e-06</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>CLI</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>0.2810731050616234</v>
+      </c>
+      <c r="F251" t="n">
+        <v>6.385729197287661e-06</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>CLI</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>[1.6658515401782539, 8.473750017768554]</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>6.385729197287661e-06</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>CLI</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>5.44903505399711</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1.220180555605453e-07</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Conc</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>1.572689099644155</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.1821620403994157</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Conc</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>-0.1217303955368686</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.05457617170068907</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Conc</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>[-0.038923225632205155, 2.4706354034883224]</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>0.05457617170068907</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Conc</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>-2.875304795496707</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.004387071601397484</v>
+      </c>
+      <c r="G257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>ConcreteWords</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>6.44886772064751</v>
+      </c>
+      <c r="F258" t="n">
+        <v>5.984402125211858e-05</v>
+      </c>
+      <c r="G258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>ConcreteWords</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>-0.2774304918078673</v>
+      </c>
+      <c r="F259" t="n">
+        <v>8.49615154798995e-06</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>ConcreteWords</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>[-0.013894867020142436, 0.0925531279762328]</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>8.49615154798995e-06</v>
+      </c>
+      <c r="G260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>ConcreteWords</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>T-Test</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>-3.054570091054561</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.0024997550587072</v>
+      </c>
+      <c r="G261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
         <is>
           <t>AbstractWords</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>1.135036567636548</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.3405497131698683</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>AbstractWords</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>correlation_coeff</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>0.005060994889984108</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.9365388242281915</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>ngram</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>AbstractWords</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>regression_coeffs</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>[0.0006463489175396968, 0.6744606177770829]</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>0.9365388242281915</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>GPT 3.5</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>domain_specific</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>AbstractWords</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
         <is>
           <t>T-Test</t>
         </is>
       </c>
-      <c r="E133" t="n">
+      <c r="E265" t="n">
         <v>-0.1386832554651374</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F265" t="n">
         <v>0.8898129955119743</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G265" t="n">
         <v>0</v>
       </c>
     </row>
